--- a/data/WSP_dataset.xlsx
+++ b/data/WSP_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19830" yWindow="0" windowWidth="900" windowHeight="4230" tabRatio="743" activeTab="2"/>
+    <workbookView xWindow="19830" yWindow="600" windowWidth="900" windowHeight="4230" tabRatio="743" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Containers Price" sheetId="8" r:id="rId1"/>
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
